--- a/Questions/Questions.xlsx
+++ b/Questions/Questions.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\abhis\Documents\GitHub\Programming\Questions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62FA7B7F-576C-4404-AB70-041539B39174}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A75E173D-5823-4F4E-A4D5-03CD258B2FC7}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1827,8 +1827,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1CDA779-6CF2-8045-9DE0-880424A4EED5}">
   <dimension ref="A1:C476"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10:XFD10"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="A17" activeCellId="2" sqref="A15:XFD15 A16:XFD16 A17:XFD17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.796875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -1948,80 +1948,80 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="21" x14ac:dyDescent="0.4">
-      <c r="A11" s="2" t="s">
+    <row r="11" spans="1:3" s="10" customFormat="1" ht="21" x14ac:dyDescent="0.4">
+      <c r="A11" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="B11" s="3" t="s">
+      <c r="B11" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="C11" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" ht="21" x14ac:dyDescent="0.4">
-      <c r="A12" s="2" t="s">
+      <c r="C11" s="9" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" s="10" customFormat="1" ht="21" x14ac:dyDescent="0.4">
+      <c r="A12" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="B12" s="3" t="s">
+      <c r="B12" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="C12" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" ht="21" x14ac:dyDescent="0.4">
-      <c r="A13" s="2" t="s">
+      <c r="C12" s="9" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" s="10" customFormat="1" ht="21" x14ac:dyDescent="0.4">
+      <c r="A13" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="B13" s="3" t="s">
+      <c r="B13" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="C13" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" ht="21" x14ac:dyDescent="0.4">
-      <c r="A14" s="2" t="s">
+      <c r="C13" s="9" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" s="10" customFormat="1" ht="21" x14ac:dyDescent="0.4">
+      <c r="A14" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="B14" s="3" t="s">
+      <c r="B14" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="C14" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" ht="21" x14ac:dyDescent="0.4">
-      <c r="A15" s="2" t="s">
+      <c r="C14" s="9" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" s="10" customFormat="1" ht="21" x14ac:dyDescent="0.4">
+      <c r="A15" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="B15" s="3" t="s">
+      <c r="B15" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="C15" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" ht="21" x14ac:dyDescent="0.4">
-      <c r="A16" s="2" t="s">
+      <c r="C15" s="9" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" s="10" customFormat="1" ht="21" x14ac:dyDescent="0.4">
+      <c r="A16" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="B16" s="3" t="s">
+      <c r="B16" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="C16" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" ht="21" x14ac:dyDescent="0.4">
-      <c r="A17" s="2" t="s">
+      <c r="C16" s="9" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" s="10" customFormat="1" ht="21" x14ac:dyDescent="0.4">
+      <c r="A17" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="B17" s="3" t="s">
+      <c r="B17" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="C17" s="1" t="s">
+      <c r="C17" s="9" t="s">
         <v>0</v>
       </c>
     </row>

--- a/Questions/Questions.xlsx
+++ b/Questions/Questions.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\abhis\Documents\GitHub\Programming\Questions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A75E173D-5823-4F4E-A4D5-03CD258B2FC7}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2CBA019-5E1B-4623-88D8-4B2ACB927C23}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -1827,8 +1827,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1CDA779-6CF2-8045-9DE0-880424A4EED5}">
   <dimension ref="A1:C476"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="A17" activeCellId="2" sqref="A15:XFD15 A16:XFD16 A17:XFD17"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.796875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>

--- a/Questions/Questions.xlsx
+++ b/Questions/Questions.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\abhis\Documents\GitHub\Programming\Questions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2CBA019-5E1B-4623-88D8-4B2ACB927C23}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C869D6E3-195A-4EFC-B182-7E287FAA42A7}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -1411,7 +1411,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1458,6 +1458,29 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="16"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -1486,7 +1509,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1510,6 +1533,14 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1827,8 +1858,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1CDA779-6CF2-8045-9DE0-880424A4EED5}">
   <dimension ref="A1:C476"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="A25" sqref="A25:XFD25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.796875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -2025,91 +2056,91 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="21" x14ac:dyDescent="0.4">
-      <c r="A18" s="2" t="s">
+    <row r="18" spans="1:3" s="14" customFormat="1" ht="21" x14ac:dyDescent="0.4">
+      <c r="A18" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="B18" s="3" t="s">
+      <c r="B18" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="C18" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" ht="21" x14ac:dyDescent="0.4">
-      <c r="A19" s="2" t="s">
+      <c r="C18" s="13" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" s="10" customFormat="1" ht="21" x14ac:dyDescent="0.4">
+      <c r="A19" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="B19" s="3" t="s">
+      <c r="B19" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="C19" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" ht="21" x14ac:dyDescent="0.4">
-      <c r="A20" s="2" t="s">
+      <c r="C19" s="9" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" s="14" customFormat="1" ht="21" x14ac:dyDescent="0.4">
+      <c r="A20" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="B20" s="3" t="s">
+      <c r="B20" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="C20" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" ht="21" x14ac:dyDescent="0.4">
-      <c r="A21" s="2" t="s">
+      <c r="C20" s="13" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" s="10" customFormat="1" ht="21" x14ac:dyDescent="0.4">
+      <c r="A21" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="B21" s="3" t="s">
+      <c r="B21" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="C21" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" ht="21" x14ac:dyDescent="0.4">
-      <c r="A22" s="2" t="s">
+      <c r="C21" s="9" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" s="10" customFormat="1" ht="21" x14ac:dyDescent="0.4">
+      <c r="A22" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="B22" s="3" t="s">
+      <c r="B22" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="C22" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" ht="21" x14ac:dyDescent="0.4">
-      <c r="A23" s="2" t="s">
+      <c r="C22" s="9" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" s="10" customFormat="1" ht="21" x14ac:dyDescent="0.4">
+      <c r="A23" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="B23" s="3" t="s">
+      <c r="B23" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="C23" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" ht="21" x14ac:dyDescent="0.4">
-      <c r="A24" s="2" t="s">
+      <c r="C23" s="9" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" s="14" customFormat="1" ht="21" x14ac:dyDescent="0.4">
+      <c r="A24" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="B24" s="3" t="s">
+      <c r="B24" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="C24" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" ht="21" x14ac:dyDescent="0.4">
-      <c r="A25" s="2" t="s">
+      <c r="C24" s="13" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" s="10" customFormat="1" ht="21" x14ac:dyDescent="0.4">
+      <c r="A25" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="B25" s="3" t="s">
+      <c r="B25" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="C25" s="1" t="s">
+      <c r="C25" s="9" t="s">
         <v>0</v>
       </c>
     </row>
@@ -7321,5 +7352,6 @@
     <hyperlink ref="B351" r:id="rId445" xr:uid="{A48B1A24-83B1-7A4C-8129-CD37804DF849}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId446"/>
 </worksheet>
 </file>
--- a/Questions/Questions.xlsx
+++ b/Questions/Questions.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23530"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\abhis\Documents\GitHub\Programming\Questions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C869D6E3-195A-4EFC-B182-7E287FAA42A7}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C252B6BB-6F57-4F80-86C2-CDF57178ABB0}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -1482,7 +1482,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1492,6 +1492,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1509,7 +1515,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1541,6 +1547,14 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1859,7 +1873,7 @@
   <dimension ref="A1:C476"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="A25" sqref="A25:XFD25"/>
+      <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.796875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -2144,91 +2158,91 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:3" ht="21" x14ac:dyDescent="0.4">
-      <c r="A26" s="2" t="s">
+    <row r="26" spans="1:3" s="18" customFormat="1" ht="21" x14ac:dyDescent="0.4">
+      <c r="A26" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="B26" s="3" t="s">
+      <c r="B26" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="C26" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" ht="21" x14ac:dyDescent="0.4">
-      <c r="A27" s="2" t="s">
+      <c r="C26" s="17" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" s="10" customFormat="1" ht="21" x14ac:dyDescent="0.4">
+      <c r="A27" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="B27" s="3" t="s">
+      <c r="B27" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="C27" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" ht="21" x14ac:dyDescent="0.4">
-      <c r="A28" s="2" t="s">
+      <c r="C27" s="9" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" s="10" customFormat="1" ht="21" x14ac:dyDescent="0.4">
+      <c r="A28" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="B28" s="3" t="s">
+      <c r="B28" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="C28" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" ht="21" x14ac:dyDescent="0.4">
-      <c r="A29" s="2" t="s">
+      <c r="C28" s="9" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" s="10" customFormat="1" ht="21" x14ac:dyDescent="0.4">
+      <c r="A29" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="B29" s="3" t="s">
+      <c r="B29" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="C29" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" ht="21" x14ac:dyDescent="0.4">
-      <c r="A30" s="2" t="s">
+      <c r="C29" s="9" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" s="10" customFormat="1" ht="21" x14ac:dyDescent="0.4">
+      <c r="A30" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="B30" s="3" t="s">
+      <c r="B30" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="C30" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" ht="21" x14ac:dyDescent="0.4">
-      <c r="A31" s="2" t="s">
+      <c r="C30" s="9" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" s="10" customFormat="1" ht="21" x14ac:dyDescent="0.4">
+      <c r="A31" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="B31" s="3" t="s">
+      <c r="B31" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="C31" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" ht="21" x14ac:dyDescent="0.4">
-      <c r="A32" s="2" t="s">
+      <c r="C31" s="9" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" s="10" customFormat="1" ht="21" x14ac:dyDescent="0.4">
+      <c r="A32" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="B32" s="3" t="s">
+      <c r="B32" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="C32" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" ht="21" x14ac:dyDescent="0.4">
-      <c r="A33" s="2" t="s">
+      <c r="C32" s="9" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" s="10" customFormat="1" ht="21" x14ac:dyDescent="0.4">
+      <c r="A33" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="B33" s="3" t="s">
+      <c r="B33" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="C33" s="1" t="s">
+      <c r="C33" s="9" t="s">
         <v>0</v>
       </c>
     </row>

--- a/Questions/Questions.xlsx
+++ b/Questions/Questions.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\abhis\Documents\GitHub\Programming\Questions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C252B6BB-6F57-4F80-86C2-CDF57178ABB0}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6509BB4-63AA-491B-85F4-1CE4D6A90317}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1346" uniqueCount="460">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1346" uniqueCount="465">
   <si>
     <t>&lt;-&gt;</t>
   </si>
@@ -1405,6 +1405,21 @@
   </si>
   <si>
     <t>Power Set</t>
+  </si>
+  <si>
+    <t>pending</t>
+  </si>
+  <si>
+    <t>Done</t>
+  </si>
+  <si>
+    <t>Rewrite</t>
+  </si>
+  <si>
+    <t>Not Related to Python</t>
+  </si>
+  <si>
+    <t>rewrite</t>
   </si>
 </sst>
 </file>
@@ -1497,7 +1512,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.59999389629810485"/>
+        <fgColor theme="4" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1515,7 +1530,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1547,14 +1562,15 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1872,8 +1888,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1CDA779-6CF2-8045-9DE0-880424A4EED5}">
   <dimension ref="A1:C476"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="B28" sqref="B28"/>
+    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="C62" sqref="C62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.796875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -1891,7 +1907,7 @@
         <v>2</v>
       </c>
       <c r="C1" s="9" t="s">
-        <v>0</v>
+        <v>461</v>
       </c>
     </row>
     <row r="2" spans="1:3" s="10" customFormat="1" ht="21" x14ac:dyDescent="0.4">
@@ -1902,7 +1918,7 @@
         <v>3</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>0</v>
+        <v>461</v>
       </c>
     </row>
     <row r="3" spans="1:3" s="10" customFormat="1" ht="21" x14ac:dyDescent="0.4">
@@ -1913,7 +1929,7 @@
         <v>4</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>0</v>
+        <v>461</v>
       </c>
     </row>
     <row r="4" spans="1:3" s="10" customFormat="1" ht="21" x14ac:dyDescent="0.4">
@@ -1924,7 +1940,7 @@
         <v>5</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>0</v>
+        <v>461</v>
       </c>
     </row>
     <row r="5" spans="1:3" s="10" customFormat="1" ht="21" x14ac:dyDescent="0.4">
@@ -1935,7 +1951,7 @@
         <v>6</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>0</v>
+        <v>461</v>
       </c>
     </row>
     <row r="6" spans="1:3" s="10" customFormat="1" ht="21" x14ac:dyDescent="0.4">
@@ -1946,7 +1962,7 @@
         <v>7</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>0</v>
+        <v>461</v>
       </c>
     </row>
     <row r="7" spans="1:3" s="10" customFormat="1" ht="21" x14ac:dyDescent="0.4">
@@ -1957,7 +1973,7 @@
         <v>8</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>0</v>
+        <v>461</v>
       </c>
     </row>
     <row r="8" spans="1:3" s="10" customFormat="1" ht="21" x14ac:dyDescent="0.4">
@@ -1968,7 +1984,7 @@
         <v>9</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>0</v>
+        <v>461</v>
       </c>
     </row>
     <row r="9" spans="1:3" s="10" customFormat="1" ht="21" x14ac:dyDescent="0.4">
@@ -1979,7 +1995,7 @@
         <v>10</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>0</v>
+        <v>461</v>
       </c>
     </row>
     <row r="10" spans="1:3" s="10" customFormat="1" ht="21" x14ac:dyDescent="0.4">
@@ -1990,7 +2006,7 @@
         <v>11</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>0</v>
+        <v>461</v>
       </c>
     </row>
     <row r="11" spans="1:3" s="10" customFormat="1" ht="21" x14ac:dyDescent="0.4">
@@ -2001,7 +2017,7 @@
         <v>12</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>0</v>
+        <v>461</v>
       </c>
     </row>
     <row r="12" spans="1:3" s="10" customFormat="1" ht="21" x14ac:dyDescent="0.4">
@@ -2012,7 +2028,7 @@
         <v>13</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>0</v>
+        <v>461</v>
       </c>
     </row>
     <row r="13" spans="1:3" s="10" customFormat="1" ht="21" x14ac:dyDescent="0.4">
@@ -2023,7 +2039,7 @@
         <v>14</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>0</v>
+        <v>461</v>
       </c>
     </row>
     <row r="14" spans="1:3" s="10" customFormat="1" ht="21" x14ac:dyDescent="0.4">
@@ -2034,7 +2050,7 @@
         <v>15</v>
       </c>
       <c r="C14" s="9" t="s">
-        <v>0</v>
+        <v>461</v>
       </c>
     </row>
     <row r="15" spans="1:3" s="10" customFormat="1" ht="21" x14ac:dyDescent="0.4">
@@ -2045,7 +2061,7 @@
         <v>16</v>
       </c>
       <c r="C15" s="9" t="s">
-        <v>0</v>
+        <v>461</v>
       </c>
     </row>
     <row r="16" spans="1:3" s="10" customFormat="1" ht="21" x14ac:dyDescent="0.4">
@@ -2056,7 +2072,7 @@
         <v>17</v>
       </c>
       <c r="C16" s="9" t="s">
-        <v>0</v>
+        <v>461</v>
       </c>
     </row>
     <row r="17" spans="1:3" s="10" customFormat="1" ht="21" x14ac:dyDescent="0.4">
@@ -2067,7 +2083,7 @@
         <v>18</v>
       </c>
       <c r="C17" s="9" t="s">
-        <v>0</v>
+        <v>461</v>
       </c>
     </row>
     <row r="18" spans="1:3" s="14" customFormat="1" ht="21" x14ac:dyDescent="0.4">
@@ -2078,7 +2094,7 @@
         <v>19</v>
       </c>
       <c r="C18" s="13" t="s">
-        <v>0</v>
+        <v>462</v>
       </c>
     </row>
     <row r="19" spans="1:3" s="10" customFormat="1" ht="21" x14ac:dyDescent="0.4">
@@ -2089,7 +2105,7 @@
         <v>20</v>
       </c>
       <c r="C19" s="9" t="s">
-        <v>0</v>
+        <v>461</v>
       </c>
     </row>
     <row r="20" spans="1:3" s="14" customFormat="1" ht="21" x14ac:dyDescent="0.4">
@@ -2100,7 +2116,7 @@
         <v>21</v>
       </c>
       <c r="C20" s="13" t="s">
-        <v>0</v>
+        <v>462</v>
       </c>
     </row>
     <row r="21" spans="1:3" s="10" customFormat="1" ht="21" x14ac:dyDescent="0.4">
@@ -2111,7 +2127,7 @@
         <v>22</v>
       </c>
       <c r="C21" s="9" t="s">
-        <v>0</v>
+        <v>461</v>
       </c>
     </row>
     <row r="22" spans="1:3" s="10" customFormat="1" ht="21" x14ac:dyDescent="0.4">
@@ -2122,7 +2138,7 @@
         <v>23</v>
       </c>
       <c r="C22" s="9" t="s">
-        <v>0</v>
+        <v>461</v>
       </c>
     </row>
     <row r="23" spans="1:3" s="10" customFormat="1" ht="21" x14ac:dyDescent="0.4">
@@ -2133,7 +2149,7 @@
         <v>24</v>
       </c>
       <c r="C23" s="9" t="s">
-        <v>0</v>
+        <v>461</v>
       </c>
     </row>
     <row r="24" spans="1:3" s="14" customFormat="1" ht="21" x14ac:dyDescent="0.4">
@@ -2144,7 +2160,7 @@
         <v>25</v>
       </c>
       <c r="C24" s="13" t="s">
-        <v>0</v>
+        <v>462</v>
       </c>
     </row>
     <row r="25" spans="1:3" s="10" customFormat="1" ht="21" x14ac:dyDescent="0.4">
@@ -2155,18 +2171,18 @@
         <v>26</v>
       </c>
       <c r="C25" s="9" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" s="18" customFormat="1" ht="21" x14ac:dyDescent="0.4">
-      <c r="A26" s="15" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" s="14" customFormat="1" ht="21" x14ac:dyDescent="0.4">
+      <c r="A26" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="B26" s="16" t="s">
+      <c r="B26" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="C26" s="17" t="s">
-        <v>0</v>
+      <c r="C26" s="13" t="s">
+        <v>462</v>
       </c>
     </row>
     <row r="27" spans="1:3" s="10" customFormat="1" ht="21" x14ac:dyDescent="0.4">
@@ -2177,7 +2193,7 @@
         <v>28</v>
       </c>
       <c r="C27" s="9" t="s">
-        <v>0</v>
+        <v>461</v>
       </c>
     </row>
     <row r="28" spans="1:3" s="10" customFormat="1" ht="21" x14ac:dyDescent="0.4">
@@ -2188,7 +2204,7 @@
         <v>29</v>
       </c>
       <c r="C28" s="9" t="s">
-        <v>0</v>
+        <v>461</v>
       </c>
     </row>
     <row r="29" spans="1:3" s="10" customFormat="1" ht="21" x14ac:dyDescent="0.4">
@@ -2199,7 +2215,7 @@
         <v>30</v>
       </c>
       <c r="C29" s="9" t="s">
-        <v>0</v>
+        <v>461</v>
       </c>
     </row>
     <row r="30" spans="1:3" s="10" customFormat="1" ht="21" x14ac:dyDescent="0.4">
@@ -2210,7 +2226,7 @@
         <v>31</v>
       </c>
       <c r="C30" s="9" t="s">
-        <v>0</v>
+        <v>461</v>
       </c>
     </row>
     <row r="31" spans="1:3" s="10" customFormat="1" ht="21" x14ac:dyDescent="0.4">
@@ -2221,7 +2237,7 @@
         <v>32</v>
       </c>
       <c r="C31" s="9" t="s">
-        <v>0</v>
+        <v>461</v>
       </c>
     </row>
     <row r="32" spans="1:3" s="10" customFormat="1" ht="21" x14ac:dyDescent="0.4">
@@ -2232,7 +2248,7 @@
         <v>33</v>
       </c>
       <c r="C32" s="9" t="s">
-        <v>0</v>
+        <v>461</v>
       </c>
     </row>
     <row r="33" spans="1:3" s="10" customFormat="1" ht="21" x14ac:dyDescent="0.4">
@@ -2243,40 +2259,40 @@
         <v>34</v>
       </c>
       <c r="C33" s="9" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" ht="21" x14ac:dyDescent="0.4">
-      <c r="A34" s="2" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" s="10" customFormat="1" ht="21" x14ac:dyDescent="0.4">
+      <c r="A34" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="B34" s="3" t="s">
+      <c r="B34" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="C34" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" ht="21" x14ac:dyDescent="0.4">
-      <c r="A35" s="2" t="s">
+      <c r="C34" s="9" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" s="10" customFormat="1" ht="21" x14ac:dyDescent="0.4">
+      <c r="A35" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="B35" s="3" t="s">
+      <c r="B35" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="C35" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" ht="21" x14ac:dyDescent="0.4">
-      <c r="A36" s="2" t="s">
+      <c r="C35" s="9" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" s="10" customFormat="1" ht="21" x14ac:dyDescent="0.4">
+      <c r="A36" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="B36" s="3" t="s">
+      <c r="B36" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="C36" s="1" t="s">
-        <v>0</v>
+      <c r="C36" s="9" t="s">
+        <v>461</v>
       </c>
     </row>
     <row r="37" spans="1:3" ht="21" x14ac:dyDescent="0.4">
@@ -2292,114 +2308,114 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:3" ht="21" x14ac:dyDescent="0.4">
-      <c r="A39" s="5" t="s">
+    <row r="39" spans="1:3" s="18" customFormat="1" ht="21" x14ac:dyDescent="0.4">
+      <c r="A39" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="B39" s="3" t="s">
+      <c r="B39" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="C39" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" ht="21" x14ac:dyDescent="0.4">
-      <c r="A40" s="5" t="s">
+      <c r="C39" s="17" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" s="18" customFormat="1" ht="21" x14ac:dyDescent="0.4">
+      <c r="A40" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="B40" s="3" t="s">
+      <c r="B40" s="16" t="s">
         <v>40</v>
       </c>
-      <c r="C40" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" ht="21" x14ac:dyDescent="0.4">
-      <c r="A41" s="5" t="s">
+      <c r="C40" s="17" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" s="18" customFormat="1" ht="21" x14ac:dyDescent="0.4">
+      <c r="A41" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="B41" s="3" t="s">
+      <c r="B41" s="16" t="s">
         <v>41</v>
       </c>
-      <c r="C41" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" ht="21" x14ac:dyDescent="0.4">
-      <c r="A42" s="5" t="s">
+      <c r="C41" s="17" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" s="18" customFormat="1" ht="21" x14ac:dyDescent="0.4">
+      <c r="A42" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="B42" s="3" t="s">
+      <c r="B42" s="16" t="s">
         <v>42</v>
       </c>
-      <c r="C42" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" ht="21" x14ac:dyDescent="0.4">
-      <c r="A43" s="5" t="s">
+      <c r="C42" s="17" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" s="18" customFormat="1" ht="21" x14ac:dyDescent="0.4">
+      <c r="A43" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="B43" s="3" t="s">
+      <c r="B43" s="16" t="s">
         <v>43</v>
       </c>
-      <c r="C43" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" ht="21" x14ac:dyDescent="0.4">
-      <c r="A44" s="5" t="s">
+      <c r="C43" s="17" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" s="18" customFormat="1" ht="21" x14ac:dyDescent="0.4">
+      <c r="A44" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="B44" s="3" t="s">
+      <c r="B44" s="16" t="s">
         <v>44</v>
       </c>
-      <c r="C44" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" ht="21" x14ac:dyDescent="0.4">
-      <c r="A45" s="5" t="s">
+      <c r="C44" s="17" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" s="18" customFormat="1" ht="21" x14ac:dyDescent="0.4">
+      <c r="A45" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="B45" s="3" t="s">
+      <c r="B45" s="16" t="s">
         <v>45</v>
       </c>
-      <c r="C45" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" ht="21" x14ac:dyDescent="0.4">
-      <c r="A46" s="5" t="s">
+      <c r="C45" s="17" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" s="18" customFormat="1" ht="21" x14ac:dyDescent="0.4">
+      <c r="A46" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="B46" s="3" t="s">
+      <c r="B46" s="16" t="s">
         <v>46</v>
       </c>
-      <c r="C46" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" ht="21" x14ac:dyDescent="0.4">
-      <c r="A47" s="5" t="s">
+      <c r="C46" s="17" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" s="18" customFormat="1" ht="21" x14ac:dyDescent="0.4">
+      <c r="A47" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="B47" s="3" t="s">
+      <c r="B47" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="C47" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" ht="21" x14ac:dyDescent="0.4">
-      <c r="A48" s="5" t="s">
+      <c r="C47" s="17" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" s="18" customFormat="1" ht="21" x14ac:dyDescent="0.4">
+      <c r="A48" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="B48" s="3" t="s">
+      <c r="B48" s="16" t="s">
         <v>48</v>
       </c>
-      <c r="C48" s="1" t="s">
-        <v>0</v>
+      <c r="C48" s="17" t="s">
+        <v>460</v>
       </c>
     </row>
     <row r="50" spans="1:3" ht="21" x14ac:dyDescent="0.4">
@@ -2407,136 +2423,136 @@
       <c r="B50" s="4"/>
       <c r="C50" s="1"/>
     </row>
-    <row r="51" spans="1:3" ht="21" x14ac:dyDescent="0.4">
-      <c r="A51" s="2" t="s">
+    <row r="51" spans="1:3" s="10" customFormat="1" ht="21" x14ac:dyDescent="0.4">
+      <c r="A51" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="B51" s="3" t="s">
+      <c r="B51" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="C51" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" ht="21" x14ac:dyDescent="0.4">
-      <c r="A52" s="2" t="s">
+      <c r="C51" s="9" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" s="10" customFormat="1" ht="21" x14ac:dyDescent="0.4">
+      <c r="A52" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="B52" s="3" t="s">
+      <c r="B52" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="C52" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" ht="21" x14ac:dyDescent="0.4">
-      <c r="A53" s="2" t="s">
+      <c r="C52" s="9" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" s="10" customFormat="1" ht="21" x14ac:dyDescent="0.4">
+      <c r="A53" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="B53" s="3" t="s">
+      <c r="B53" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="C53" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" ht="21" x14ac:dyDescent="0.4">
-      <c r="A54" s="2" t="s">
+      <c r="C53" s="9" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" s="10" customFormat="1" ht="21" x14ac:dyDescent="0.4">
+      <c r="A54" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="B54" s="4" t="s">
+      <c r="B54" s="19" t="s">
         <v>53</v>
       </c>
-      <c r="C54" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" ht="21" x14ac:dyDescent="0.4">
-      <c r="A55" s="2" t="s">
+      <c r="C54" s="9" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" s="10" customFormat="1" ht="21" x14ac:dyDescent="0.4">
+      <c r="A55" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="B55" s="3" t="s">
+      <c r="B55" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="C55" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3" ht="21" x14ac:dyDescent="0.4">
-      <c r="A56" s="2" t="s">
+      <c r="C55" s="9" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" s="10" customFormat="1" ht="21" x14ac:dyDescent="0.4">
+      <c r="A56" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="B56" s="3" t="s">
+      <c r="B56" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="C56" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3" ht="21" x14ac:dyDescent="0.4">
-      <c r="A57" s="2" t="s">
+      <c r="C56" s="9" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" s="10" customFormat="1" ht="21" x14ac:dyDescent="0.4">
+      <c r="A57" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="B57" s="3" t="s">
+      <c r="B57" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="C57" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3" ht="21" x14ac:dyDescent="0.4">
-      <c r="A58" s="2" t="s">
+      <c r="C57" s="9" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" s="10" customFormat="1" ht="21" x14ac:dyDescent="0.4">
+      <c r="A58" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="B58" s="3" t="s">
+      <c r="B58" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="C58" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3" ht="21" x14ac:dyDescent="0.4">
-      <c r="A59" s="2" t="s">
+      <c r="C58" s="9" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" s="10" customFormat="1" ht="21" x14ac:dyDescent="0.4">
+      <c r="A59" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="B59" s="3" t="s">
+      <c r="B59" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="C59" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3" ht="21" x14ac:dyDescent="0.4">
-      <c r="A60" s="2" t="s">
+      <c r="C59" s="9" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" s="10" customFormat="1" ht="21" x14ac:dyDescent="0.4">
+      <c r="A60" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="B60" s="3" t="s">
+      <c r="B60" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="C60" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3" ht="21" x14ac:dyDescent="0.4">
-      <c r="A61" s="2" t="s">
+      <c r="C60" s="9" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" s="14" customFormat="1" ht="21" x14ac:dyDescent="0.4">
+      <c r="A61" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="B61" s="3" t="s">
+      <c r="B61" s="12" t="s">
         <v>60</v>
       </c>
-      <c r="C61" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3" ht="21" x14ac:dyDescent="0.4">
-      <c r="A62" s="2" t="s">
+      <c r="C61" s="13" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" s="10" customFormat="1" ht="21" x14ac:dyDescent="0.4">
+      <c r="A62" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="B62" s="3" t="s">
+      <c r="B62" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="C62" s="1" t="s">
-        <v>0</v>
+      <c r="C62" s="9" t="s">
+        <v>461</v>
       </c>
     </row>
     <row r="63" spans="1:3" ht="21" x14ac:dyDescent="0.4">

--- a/Questions/Questions.xlsx
+++ b/Questions/Questions.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\abhis\Documents\GitHub\Programming\Questions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6509BB4-63AA-491B-85F4-1CE4D6A90317}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33B3E558-2095-4184-B93F-F473DE2DC68B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -1530,7 +1530,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1571,6 +1571,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1888,8 +1891,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1CDA779-6CF2-8045-9DE0-880424A4EED5}">
   <dimension ref="A1:C476"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="C62" sqref="C62"/>
+    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="B53" sqref="B53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.796875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -2478,25 +2481,25 @@
         <v>461</v>
       </c>
     </row>
-    <row r="56" spans="1:3" s="10" customFormat="1" ht="21" x14ac:dyDescent="0.4">
-      <c r="A56" s="7" t="s">
+    <row r="56" spans="1:3" s="18" customFormat="1" ht="21" x14ac:dyDescent="0.4">
+      <c r="A56" s="20" t="s">
         <v>49</v>
       </c>
-      <c r="B56" s="8" t="s">
+      <c r="B56" s="16" t="s">
         <v>55</v>
       </c>
-      <c r="C56" s="9" t="s">
+      <c r="C56" s="17" t="s">
         <v>461</v>
       </c>
     </row>
-    <row r="57" spans="1:3" s="10" customFormat="1" ht="21" x14ac:dyDescent="0.4">
-      <c r="A57" s="7" t="s">
+    <row r="57" spans="1:3" s="18" customFormat="1" ht="21" x14ac:dyDescent="0.4">
+      <c r="A57" s="20" t="s">
         <v>49</v>
       </c>
-      <c r="B57" s="8" t="s">
+      <c r="B57" s="16" t="s">
         <v>56</v>
       </c>
-      <c r="C57" s="9" t="s">
+      <c r="C57" s="17" t="s">
         <v>461</v>
       </c>
     </row>
@@ -2555,91 +2558,91 @@
         <v>461</v>
       </c>
     </row>
-    <row r="63" spans="1:3" ht="21" x14ac:dyDescent="0.4">
-      <c r="A63" s="2" t="s">
+    <row r="63" spans="1:3" s="18" customFormat="1" ht="21" x14ac:dyDescent="0.4">
+      <c r="A63" s="15" t="s">
         <v>49</v>
       </c>
-      <c r="B63" s="3" t="s">
+      <c r="B63" s="16" t="s">
         <v>62</v>
       </c>
-      <c r="C63" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3" ht="21" x14ac:dyDescent="0.4">
-      <c r="A64" s="2" t="s">
+      <c r="C63" s="17" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" s="10" customFormat="1" ht="21" x14ac:dyDescent="0.4">
+      <c r="A64" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="B64" s="3" t="s">
+      <c r="B64" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="C64" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3" ht="21" x14ac:dyDescent="0.4">
-      <c r="A65" s="2" t="s">
+      <c r="C64" s="9" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" s="10" customFormat="1" ht="21" x14ac:dyDescent="0.4">
+      <c r="A65" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="B65" s="3" t="s">
+      <c r="B65" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="C65" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3" ht="21" x14ac:dyDescent="0.4">
-      <c r="A66" s="2" t="s">
+      <c r="C65" s="9" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" s="10" customFormat="1" ht="21" x14ac:dyDescent="0.4">
+      <c r="A66" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="B66" s="3" t="s">
+      <c r="B66" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="C66" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3" ht="21" x14ac:dyDescent="0.4">
-      <c r="A67" s="2" t="s">
+      <c r="C66" s="9" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" s="10" customFormat="1" ht="21" x14ac:dyDescent="0.4">
+      <c r="A67" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="B67" s="3" t="s">
+      <c r="B67" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="C67" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3" ht="21" x14ac:dyDescent="0.4">
-      <c r="A68" s="2" t="s">
+      <c r="C67" s="9" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" s="10" customFormat="1" ht="21" x14ac:dyDescent="0.4">
+      <c r="A68" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="B68" s="3" t="s">
+      <c r="B68" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="C68" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3" ht="21" x14ac:dyDescent="0.4">
-      <c r="A69" s="2" t="s">
+      <c r="C68" s="9" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" s="10" customFormat="1" ht="21" x14ac:dyDescent="0.4">
+      <c r="A69" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="B69" s="3" t="s">
+      <c r="B69" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="C69" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3" ht="21" x14ac:dyDescent="0.4">
-      <c r="A70" s="2" t="s">
+      <c r="C69" s="9" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" s="10" customFormat="1" ht="21" x14ac:dyDescent="0.4">
+      <c r="A70" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="B70" s="3" t="s">
+      <c r="B70" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="C70" s="1" t="s">
+      <c r="C70" s="9" t="s">
         <v>0</v>
       </c>
     </row>

--- a/Questions/Questions.xlsx
+++ b/Questions/Questions.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\abhis\Documents\GitHub\Programming\Questions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33B3E558-2095-4184-B93F-F473DE2DC68B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3E13754-35F3-4D5B-95D7-E660ECFB7BC4}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -1891,8 +1891,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1CDA779-6CF2-8045-9DE0-880424A4EED5}">
   <dimension ref="A1:C476"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="B53" sqref="B53"/>
+    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
+      <selection activeCell="A77" sqref="A77:XFD77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.796875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -2646,36 +2646,36 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:3" ht="21" x14ac:dyDescent="0.4">
-      <c r="A71" s="2" t="s">
+    <row r="71" spans="1:3" s="10" customFormat="1" ht="21" x14ac:dyDescent="0.4">
+      <c r="A71" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="B71" s="3" t="s">
+      <c r="B71" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="C71" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3" ht="21" x14ac:dyDescent="0.4">
-      <c r="A72" s="2" t="s">
+      <c r="C71" s="9" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" s="10" customFormat="1" ht="21" x14ac:dyDescent="0.4">
+      <c r="A72" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="B72" s="3" t="s">
+      <c r="B72" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="C72" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3" ht="21" x14ac:dyDescent="0.4">
-      <c r="A73" s="2" t="s">
+      <c r="C72" s="9" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" s="14" customFormat="1" ht="21" x14ac:dyDescent="0.4">
+      <c r="A73" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="B73" s="3" t="s">
+      <c r="B73" s="12" t="s">
         <v>72</v>
       </c>
-      <c r="C73" s="1" t="s">
+      <c r="C73" s="13" t="s">
         <v>0</v>
       </c>
     </row>

--- a/Questions/Questions.xlsx
+++ b/Questions/Questions.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\abhis\Documents\GitHub\Programming\Questions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3E13754-35F3-4D5B-95D7-E660ECFB7BC4}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6A2D3DF-F150-4D42-83C6-3BE52F89DC4E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -1426,7 +1426,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1496,6 +1496,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="16"/>
+      <color theme="4" tint="-0.249977111117893"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -1530,7 +1538,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1574,6 +1582,7 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1891,8 +1900,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1CDA779-6CF2-8045-9DE0-880424A4EED5}">
   <dimension ref="A1:C476"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
-      <selection activeCell="A77" sqref="A77:XFD77"/>
+    <sheetView tabSelected="1" topLeftCell="A100" workbookViewId="0">
+      <selection activeCell="B106" sqref="B106"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.796875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -2679,91 +2688,91 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:3" ht="21" x14ac:dyDescent="0.4">
-      <c r="A74" s="2" t="s">
+    <row r="74" spans="1:3" s="10" customFormat="1" ht="21" x14ac:dyDescent="0.4">
+      <c r="A74" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="B74" s="3" t="s">
+      <c r="B74" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="C74" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3" ht="21" x14ac:dyDescent="0.4">
-      <c r="A75" s="2" t="s">
+      <c r="C74" s="9" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" s="10" customFormat="1" ht="21" x14ac:dyDescent="0.4">
+      <c r="A75" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="B75" s="3" t="s">
+      <c r="B75" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="C75" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3" ht="21" x14ac:dyDescent="0.4">
-      <c r="A76" s="2" t="s">
+      <c r="C75" s="9" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" s="10" customFormat="1" ht="21" x14ac:dyDescent="0.4">
+      <c r="A76" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="B76" s="3" t="s">
+      <c r="B76" s="8" t="s">
         <v>75</v>
       </c>
-      <c r="C76" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="77" spans="1:3" ht="21" x14ac:dyDescent="0.4">
-      <c r="A77" s="2" t="s">
+      <c r="C76" s="9" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" s="10" customFormat="1" ht="21" x14ac:dyDescent="0.4">
+      <c r="A77" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="B77" s="3" t="s">
+      <c r="B77" s="8" t="s">
         <v>76</v>
       </c>
-      <c r="C77" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3" ht="21" x14ac:dyDescent="0.4">
-      <c r="A78" s="2" t="s">
+      <c r="C77" s="9" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" s="10" customFormat="1" ht="21" x14ac:dyDescent="0.4">
+      <c r="A78" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="B78" s="3" t="s">
+      <c r="B78" s="8" t="s">
         <v>77</v>
       </c>
-      <c r="C78" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="79" spans="1:3" ht="21" x14ac:dyDescent="0.4">
-      <c r="A79" s="2" t="s">
+      <c r="C78" s="9" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" s="10" customFormat="1" ht="21" x14ac:dyDescent="0.4">
+      <c r="A79" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="B79" s="3" t="s">
+      <c r="B79" s="8" t="s">
         <v>78</v>
       </c>
-      <c r="C79" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="80" spans="1:3" ht="21" x14ac:dyDescent="0.4">
-      <c r="A80" s="2" t="s">
+      <c r="C79" s="9" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" s="14" customFormat="1" ht="21" x14ac:dyDescent="0.4">
+      <c r="A80" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="B80" s="3" t="s">
+      <c r="B80" s="12" t="s">
         <v>79</v>
       </c>
-      <c r="C80" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="81" spans="1:3" ht="21" x14ac:dyDescent="0.4">
-      <c r="A81" s="2" t="s">
+      <c r="C80" s="13" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" s="10" customFormat="1" ht="21" x14ac:dyDescent="0.4">
+      <c r="A81" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="B81" s="3" t="s">
+      <c r="B81" s="8" t="s">
         <v>80</v>
       </c>
-      <c r="C81" s="1" t="s">
+      <c r="C81" s="9" t="s">
         <v>0</v>
       </c>
     </row>
@@ -2778,25 +2787,25 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:3" ht="21" x14ac:dyDescent="0.4">
-      <c r="A83" s="2" t="s">
+    <row r="83" spans="1:3" s="10" customFormat="1" ht="21" x14ac:dyDescent="0.4">
+      <c r="A83" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="B83" s="3" t="s">
+      <c r="B83" s="8" t="s">
         <v>82</v>
       </c>
-      <c r="C83" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="84" spans="1:3" ht="21" x14ac:dyDescent="0.4">
-      <c r="A84" s="2" t="s">
+      <c r="C83" s="9" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" s="10" customFormat="1" ht="21" x14ac:dyDescent="0.4">
+      <c r="A84" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="B84" s="3" t="s">
+      <c r="B84" s="8" t="s">
         <v>83</v>
       </c>
-      <c r="C84" s="1" t="s">
+      <c r="C84" s="9" t="s">
         <v>0</v>
       </c>
     </row>
@@ -2811,47 +2820,47 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:3" ht="21" x14ac:dyDescent="0.4">
-      <c r="A86" s="2" t="s">
+    <row r="86" spans="1:3" s="10" customFormat="1" ht="21" x14ac:dyDescent="0.4">
+      <c r="A86" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="B86" s="3" t="s">
+      <c r="B86" s="8" t="s">
         <v>85</v>
       </c>
-      <c r="C86" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="87" spans="1:3" ht="21" x14ac:dyDescent="0.4">
-      <c r="A87" s="2" t="s">
+      <c r="C86" s="9" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" s="10" customFormat="1" ht="21" x14ac:dyDescent="0.4">
+      <c r="A87" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="B87" s="3" t="s">
+      <c r="B87" s="21" t="s">
         <v>86</v>
       </c>
-      <c r="C87" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="88" spans="1:3" ht="21" x14ac:dyDescent="0.4">
-      <c r="A88" s="2" t="s">
+      <c r="C87" s="9" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" s="10" customFormat="1" ht="21" x14ac:dyDescent="0.4">
+      <c r="A88" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="B88" s="3" t="s">
+      <c r="B88" s="21" t="s">
         <v>87</v>
       </c>
-      <c r="C88" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="89" spans="1:3" ht="21" x14ac:dyDescent="0.4">
-      <c r="A89" s="2" t="s">
+      <c r="C88" s="9" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" s="10" customFormat="1" ht="21" x14ac:dyDescent="0.4">
+      <c r="A89" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="B89" s="3" t="s">
+      <c r="B89" s="8" t="s">
         <v>88</v>
       </c>
-      <c r="C89" s="1" t="s">
+      <c r="C89" s="9" t="s">
         <v>0</v>
       </c>
     </row>
@@ -2877,25 +2886,25 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:3" ht="21" x14ac:dyDescent="0.4">
-      <c r="A92" s="2" t="s">
+    <row r="92" spans="1:3" s="10" customFormat="1" ht="21" x14ac:dyDescent="0.4">
+      <c r="A92" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="B92" s="3" t="s">
+      <c r="B92" s="8" t="s">
         <v>91</v>
       </c>
-      <c r="C92" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="93" spans="1:3" ht="21" x14ac:dyDescent="0.4">
-      <c r="A93" s="2" t="s">
+      <c r="C92" s="9" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" s="10" customFormat="1" ht="21" x14ac:dyDescent="0.4">
+      <c r="A93" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="B93" s="3" t="s">
+      <c r="B93" s="8" t="s">
         <v>92</v>
       </c>
-      <c r="C93" s="1" t="s">
+      <c r="C93" s="9" t="s">
         <v>0</v>
       </c>
     </row>
@@ -2904,113 +2913,113 @@
       <c r="B95" s="4"/>
       <c r="C95" s="1"/>
     </row>
-    <row r="96" spans="1:3" ht="21" x14ac:dyDescent="0.4">
-      <c r="A96" s="2" t="s">
+    <row r="96" spans="1:3" s="10" customFormat="1" ht="21" x14ac:dyDescent="0.4">
+      <c r="A96" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="B96" s="3" t="s">
+      <c r="B96" s="8" t="s">
         <v>94</v>
       </c>
-      <c r="C96" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="1:3" ht="21" x14ac:dyDescent="0.4">
-      <c r="A97" s="2" t="s">
+      <c r="C96" s="9" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" s="10" customFormat="1" ht="21" x14ac:dyDescent="0.4">
+      <c r="A97" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="B97" s="3" t="s">
+      <c r="B97" s="8" t="s">
         <v>95</v>
       </c>
-      <c r="C97" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="98" spans="1:3" ht="21" x14ac:dyDescent="0.4">
-      <c r="A98" s="2" t="s">
+      <c r="C97" s="9" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" s="10" customFormat="1" ht="21" x14ac:dyDescent="0.4">
+      <c r="A98" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="B98" s="3" t="s">
+      <c r="B98" s="8" t="s">
         <v>96</v>
       </c>
-      <c r="C98" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="99" spans="1:3" ht="21" x14ac:dyDescent="0.4">
-      <c r="A99" s="2" t="s">
+      <c r="C98" s="9" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" s="10" customFormat="1" ht="21" x14ac:dyDescent="0.4">
+      <c r="A99" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="B99" s="3" t="s">
+      <c r="B99" s="8" t="s">
         <v>97</v>
       </c>
-      <c r="C99" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="100" spans="1:3" ht="21" x14ac:dyDescent="0.4">
-      <c r="A100" s="2" t="s">
+      <c r="C99" s="9" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" s="10" customFormat="1" ht="21" x14ac:dyDescent="0.4">
+      <c r="A100" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="B100" s="3" t="s">
+      <c r="B100" s="8" t="s">
         <v>98</v>
       </c>
-      <c r="C100" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101" spans="1:3" ht="21" x14ac:dyDescent="0.4">
-      <c r="A101" s="2" t="s">
+      <c r="C100" s="9" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" s="14" customFormat="1" ht="21" x14ac:dyDescent="0.4">
+      <c r="A101" s="11" t="s">
         <v>93</v>
       </c>
-      <c r="B101" s="3" t="s">
+      <c r="B101" s="12" t="s">
         <v>99</v>
       </c>
-      <c r="C101" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="102" spans="1:3" ht="21" x14ac:dyDescent="0.4">
-      <c r="A102" s="2" t="s">
+      <c r="C101" s="13" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" s="10" customFormat="1" ht="21" x14ac:dyDescent="0.4">
+      <c r="A102" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="B102" s="3" t="s">
+      <c r="B102" s="8" t="s">
         <v>100</v>
       </c>
-      <c r="C102" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="103" spans="1:3" ht="21" x14ac:dyDescent="0.4">
-      <c r="A103" s="2" t="s">
+      <c r="C102" s="9" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" s="10" customFormat="1" ht="21" x14ac:dyDescent="0.4">
+      <c r="A103" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="B103" s="3" t="s">
+      <c r="B103" s="8" t="s">
         <v>101</v>
       </c>
-      <c r="C103" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="104" spans="1:3" ht="21" x14ac:dyDescent="0.4">
-      <c r="A104" s="2" t="s">
+      <c r="C103" s="9" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" s="10" customFormat="1" ht="21" x14ac:dyDescent="0.4">
+      <c r="A104" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="B104" s="3" t="s">
+      <c r="B104" s="8" t="s">
         <v>102</v>
       </c>
-      <c r="C104" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="105" spans="1:3" ht="21" x14ac:dyDescent="0.4">
-      <c r="A105" s="2" t="s">
+      <c r="C104" s="9" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" s="10" customFormat="1" ht="21" x14ac:dyDescent="0.4">
+      <c r="A105" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="B105" s="3" t="s">
+      <c r="B105" s="8" t="s">
         <v>103</v>
       </c>
-      <c r="C105" s="1" t="s">
+      <c r="C105" s="9" t="s">
         <v>0</v>
       </c>
     </row>

--- a/Questions/Questions.xlsx
+++ b/Questions/Questions.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\abhis\Documents\GitHub\Programming\Questions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6A2D3DF-F150-4D42-83C6-3BE52F89DC4E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6845B0EF-2C52-434B-A2AE-059149A1CEF5}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -1900,8 +1900,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1CDA779-6CF2-8045-9DE0-880424A4EED5}">
   <dimension ref="A1:C476"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A100" workbookViewId="0">
-      <selection activeCell="B106" sqref="B106"/>
+    <sheetView tabSelected="1" topLeftCell="A106" workbookViewId="0">
+      <selection activeCell="A112" activeCellId="1" sqref="A111:XFD111 A112:XFD112"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.796875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -3023,80 +3023,80 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:3" ht="21" x14ac:dyDescent="0.4">
-      <c r="A106" s="2" t="s">
+    <row r="106" spans="1:3" s="10" customFormat="1" ht="21" x14ac:dyDescent="0.4">
+      <c r="A106" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="B106" s="3" t="s">
+      <c r="B106" s="8" t="s">
         <v>104</v>
       </c>
-      <c r="C106" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="107" spans="1:3" ht="21" x14ac:dyDescent="0.4">
-      <c r="A107" s="2" t="s">
+      <c r="C106" s="9" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" s="10" customFormat="1" ht="21" x14ac:dyDescent="0.4">
+      <c r="A107" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="B107" s="3" t="s">
+      <c r="B107" s="8" t="s">
         <v>105</v>
       </c>
-      <c r="C107" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="108" spans="1:3" ht="21" x14ac:dyDescent="0.4">
-      <c r="A108" s="2" t="s">
+      <c r="C107" s="9" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" s="10" customFormat="1" ht="21" x14ac:dyDescent="0.4">
+      <c r="A108" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="B108" s="3" t="s">
+      <c r="B108" s="8" t="s">
         <v>106</v>
       </c>
-      <c r="C108" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="109" spans="1:3" ht="21" x14ac:dyDescent="0.4">
-      <c r="A109" s="2" t="s">
+      <c r="C108" s="9" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" s="10" customFormat="1" ht="21" x14ac:dyDescent="0.4">
+      <c r="A109" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="B109" s="3" t="s">
+      <c r="B109" s="8" t="s">
         <v>107</v>
       </c>
-      <c r="C109" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="110" spans="1:3" ht="21" x14ac:dyDescent="0.4">
-      <c r="A110" s="2" t="s">
+      <c r="C109" s="9" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" s="10" customFormat="1" ht="21" x14ac:dyDescent="0.4">
+      <c r="A110" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="B110" s="3" t="s">
+      <c r="B110" s="8" t="s">
         <v>108</v>
       </c>
-      <c r="C110" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="111" spans="1:3" ht="21" x14ac:dyDescent="0.4">
-      <c r="A111" s="2" t="s">
+      <c r="C110" s="9" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" s="10" customFormat="1" ht="21" x14ac:dyDescent="0.4">
+      <c r="A111" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="B111" s="3" t="s">
+      <c r="B111" s="8" t="s">
         <v>109</v>
       </c>
-      <c r="C111" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="112" spans="1:3" ht="21" x14ac:dyDescent="0.4">
-      <c r="A112" s="2" t="s">
+      <c r="C111" s="9" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" s="10" customFormat="1" ht="21" x14ac:dyDescent="0.4">
+      <c r="A112" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="B112" s="3" t="s">
+      <c r="B112" s="8" t="s">
         <v>110</v>
       </c>
-      <c r="C112" s="1" t="s">
+      <c r="C112" s="9" t="s">
         <v>0</v>
       </c>
     </row>

--- a/Questions/Questions.xlsx
+++ b/Questions/Questions.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\abhis\Documents\GitHub\Programming\Questions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6845B0EF-2C52-434B-A2AE-059149A1CEF5}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC14C596-7231-4ABC-BD37-DA57BAFA943D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -1900,8 +1900,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1CDA779-6CF2-8045-9DE0-880424A4EED5}">
   <dimension ref="A1:C476"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A106" workbookViewId="0">
-      <selection activeCell="A112" activeCellId="1" sqref="A111:XFD111 A112:XFD112"/>
+    <sheetView tabSelected="1" topLeftCell="A86" workbookViewId="0">
+      <selection activeCell="B97" sqref="B97"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.796875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -2586,7 +2586,7 @@
         <v>63</v>
       </c>
       <c r="C64" s="9" t="s">
-        <v>0</v>
+        <v>461</v>
       </c>
     </row>
     <row r="65" spans="1:3" s="10" customFormat="1" ht="21" x14ac:dyDescent="0.4">
@@ -2597,7 +2597,7 @@
         <v>64</v>
       </c>
       <c r="C65" s="9" t="s">
-        <v>0</v>
+        <v>461</v>
       </c>
     </row>
     <row r="66" spans="1:3" s="10" customFormat="1" ht="21" x14ac:dyDescent="0.4">
@@ -2608,7 +2608,7 @@
         <v>65</v>
       </c>
       <c r="C66" s="9" t="s">
-        <v>0</v>
+        <v>461</v>
       </c>
     </row>
     <row r="67" spans="1:3" s="10" customFormat="1" ht="21" x14ac:dyDescent="0.4">
@@ -2619,7 +2619,7 @@
         <v>66</v>
       </c>
       <c r="C67" s="9" t="s">
-        <v>0</v>
+        <v>461</v>
       </c>
     </row>
     <row r="68" spans="1:3" s="10" customFormat="1" ht="21" x14ac:dyDescent="0.4">
@@ -2630,7 +2630,7 @@
         <v>67</v>
       </c>
       <c r="C68" s="9" t="s">
-        <v>0</v>
+        <v>461</v>
       </c>
     </row>
     <row r="69" spans="1:3" s="10" customFormat="1" ht="21" x14ac:dyDescent="0.4">
@@ -2641,7 +2641,7 @@
         <v>68</v>
       </c>
       <c r="C69" s="9" t="s">
-        <v>0</v>
+        <v>461</v>
       </c>
     </row>
     <row r="70" spans="1:3" s="10" customFormat="1" ht="21" x14ac:dyDescent="0.4">
@@ -2652,7 +2652,7 @@
         <v>69</v>
       </c>
       <c r="C70" s="9" t="s">
-        <v>0</v>
+        <v>461</v>
       </c>
     </row>
     <row r="71" spans="1:3" s="10" customFormat="1" ht="21" x14ac:dyDescent="0.4">
@@ -2663,7 +2663,7 @@
         <v>70</v>
       </c>
       <c r="C71" s="9" t="s">
-        <v>0</v>
+        <v>461</v>
       </c>
     </row>
     <row r="72" spans="1:3" s="10" customFormat="1" ht="21" x14ac:dyDescent="0.4">
@@ -2674,7 +2674,7 @@
         <v>71</v>
       </c>
       <c r="C72" s="9" t="s">
-        <v>0</v>
+        <v>461</v>
       </c>
     </row>
     <row r="73" spans="1:3" s="14" customFormat="1" ht="21" x14ac:dyDescent="0.4">
@@ -2685,7 +2685,7 @@
         <v>72</v>
       </c>
       <c r="C73" s="13" t="s">
-        <v>0</v>
+        <v>464</v>
       </c>
     </row>
     <row r="74" spans="1:3" s="10" customFormat="1" ht="21" x14ac:dyDescent="0.4">
@@ -2696,7 +2696,7 @@
         <v>73</v>
       </c>
       <c r="C74" s="9" t="s">
-        <v>0</v>
+        <v>461</v>
       </c>
     </row>
     <row r="75" spans="1:3" s="10" customFormat="1" ht="21" x14ac:dyDescent="0.4">
@@ -2707,7 +2707,7 @@
         <v>74</v>
       </c>
       <c r="C75" s="9" t="s">
-        <v>0</v>
+        <v>461</v>
       </c>
     </row>
     <row r="76" spans="1:3" s="10" customFormat="1" ht="21" x14ac:dyDescent="0.4">
@@ -2718,7 +2718,7 @@
         <v>75</v>
       </c>
       <c r="C76" s="9" t="s">
-        <v>0</v>
+        <v>461</v>
       </c>
     </row>
     <row r="77" spans="1:3" s="10" customFormat="1" ht="21" x14ac:dyDescent="0.4">
@@ -2729,7 +2729,7 @@
         <v>76</v>
       </c>
       <c r="C77" s="9" t="s">
-        <v>0</v>
+        <v>461</v>
       </c>
     </row>
     <row r="78" spans="1:3" s="10" customFormat="1" ht="21" x14ac:dyDescent="0.4">
@@ -2740,7 +2740,7 @@
         <v>77</v>
       </c>
       <c r="C78" s="9" t="s">
-        <v>0</v>
+        <v>461</v>
       </c>
     </row>
     <row r="79" spans="1:3" s="10" customFormat="1" ht="21" x14ac:dyDescent="0.4">
@@ -2751,7 +2751,7 @@
         <v>78</v>
       </c>
       <c r="C79" s="9" t="s">
-        <v>0</v>
+        <v>461</v>
       </c>
     </row>
     <row r="80" spans="1:3" s="14" customFormat="1" ht="21" x14ac:dyDescent="0.4">
@@ -2762,7 +2762,7 @@
         <v>79</v>
       </c>
       <c r="C80" s="13" t="s">
-        <v>0</v>
+        <v>464</v>
       </c>
     </row>
     <row r="81" spans="1:3" s="10" customFormat="1" ht="21" x14ac:dyDescent="0.4">
@@ -2784,7 +2784,7 @@
         <v>81</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>0</v>
+        <v>460</v>
       </c>
     </row>
     <row r="83" spans="1:3" s="10" customFormat="1" ht="21" x14ac:dyDescent="0.4">
@@ -2795,7 +2795,7 @@
         <v>82</v>
       </c>
       <c r="C83" s="9" t="s">
-        <v>0</v>
+        <v>461</v>
       </c>
     </row>
     <row r="84" spans="1:3" s="10" customFormat="1" ht="21" x14ac:dyDescent="0.4">
@@ -2806,7 +2806,7 @@
         <v>83</v>
       </c>
       <c r="C84" s="9" t="s">
-        <v>0</v>
+        <v>461</v>
       </c>
     </row>
     <row r="85" spans="1:3" ht="21" x14ac:dyDescent="0.4">
@@ -2817,7 +2817,7 @@
         <v>84</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>0</v>
+        <v>460</v>
       </c>
     </row>
     <row r="86" spans="1:3" s="10" customFormat="1" ht="21" x14ac:dyDescent="0.4">
@@ -2828,7 +2828,7 @@
         <v>85</v>
       </c>
       <c r="C86" s="9" t="s">
-        <v>0</v>
+        <v>461</v>
       </c>
     </row>
     <row r="87" spans="1:3" s="10" customFormat="1" ht="21" x14ac:dyDescent="0.4">
@@ -2839,7 +2839,7 @@
         <v>86</v>
       </c>
       <c r="C87" s="9" t="s">
-        <v>0</v>
+        <v>461</v>
       </c>
     </row>
     <row r="88" spans="1:3" s="10" customFormat="1" ht="21" x14ac:dyDescent="0.4">
@@ -2850,7 +2850,7 @@
         <v>87</v>
       </c>
       <c r="C88" s="9" t="s">
-        <v>0</v>
+        <v>461</v>
       </c>
     </row>
     <row r="89" spans="1:3" s="10" customFormat="1" ht="21" x14ac:dyDescent="0.4">
@@ -2861,7 +2861,7 @@
         <v>88</v>
       </c>
       <c r="C89" s="9" t="s">
-        <v>0</v>
+        <v>461</v>
       </c>
     </row>
     <row r="90" spans="1:3" ht="21" x14ac:dyDescent="0.4">
@@ -2872,7 +2872,7 @@
         <v>89</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>0</v>
+        <v>460</v>
       </c>
     </row>
     <row r="91" spans="1:3" ht="21" x14ac:dyDescent="0.4">
@@ -2883,7 +2883,7 @@
         <v>90</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>0</v>
+        <v>460</v>
       </c>
     </row>
     <row r="92" spans="1:3" s="10" customFormat="1" ht="21" x14ac:dyDescent="0.4">
@@ -2894,7 +2894,7 @@
         <v>91</v>
       </c>
       <c r="C92" s="9" t="s">
-        <v>0</v>
+        <v>461</v>
       </c>
     </row>
     <row r="93" spans="1:3" s="10" customFormat="1" ht="21" x14ac:dyDescent="0.4">
@@ -2905,7 +2905,7 @@
         <v>92</v>
       </c>
       <c r="C93" s="9" t="s">
-        <v>0</v>
+        <v>461</v>
       </c>
     </row>
     <row r="95" spans="1:3" ht="21" x14ac:dyDescent="0.4">
@@ -2921,7 +2921,7 @@
         <v>94</v>
       </c>
       <c r="C96" s="9" t="s">
-        <v>0</v>
+        <v>461</v>
       </c>
     </row>
     <row r="97" spans="1:3" s="10" customFormat="1" ht="21" x14ac:dyDescent="0.4">
@@ -2932,7 +2932,7 @@
         <v>95</v>
       </c>
       <c r="C97" s="9" t="s">
-        <v>0</v>
+        <v>461</v>
       </c>
     </row>
     <row r="98" spans="1:3" s="10" customFormat="1" ht="21" x14ac:dyDescent="0.4">
@@ -2943,7 +2943,7 @@
         <v>96</v>
       </c>
       <c r="C98" s="9" t="s">
-        <v>0</v>
+        <v>461</v>
       </c>
     </row>
     <row r="99" spans="1:3" s="10" customFormat="1" ht="21" x14ac:dyDescent="0.4">
@@ -2954,7 +2954,7 @@
         <v>97</v>
       </c>
       <c r="C99" s="9" t="s">
-        <v>0</v>
+        <v>461</v>
       </c>
     </row>
     <row r="100" spans="1:3" s="10" customFormat="1" ht="21" x14ac:dyDescent="0.4">
@@ -2965,7 +2965,7 @@
         <v>98</v>
       </c>
       <c r="C100" s="9" t="s">
-        <v>0</v>
+        <v>461</v>
       </c>
     </row>
     <row r="101" spans="1:3" s="14" customFormat="1" ht="21" x14ac:dyDescent="0.4">
@@ -2976,7 +2976,7 @@
         <v>99</v>
       </c>
       <c r="C101" s="13" t="s">
-        <v>0</v>
+        <v>464</v>
       </c>
     </row>
     <row r="102" spans="1:3" s="10" customFormat="1" ht="21" x14ac:dyDescent="0.4">
@@ -2987,7 +2987,7 @@
         <v>100</v>
       </c>
       <c r="C102" s="9" t="s">
-        <v>0</v>
+        <v>461</v>
       </c>
     </row>
     <row r="103" spans="1:3" s="10" customFormat="1" ht="21" x14ac:dyDescent="0.4">
@@ -2998,7 +2998,7 @@
         <v>101</v>
       </c>
       <c r="C103" s="9" t="s">
-        <v>0</v>
+        <v>461</v>
       </c>
     </row>
     <row r="104" spans="1:3" s="10" customFormat="1" ht="21" x14ac:dyDescent="0.4">
@@ -3009,7 +3009,7 @@
         <v>102</v>
       </c>
       <c r="C104" s="9" t="s">
-        <v>0</v>
+        <v>461</v>
       </c>
     </row>
     <row r="105" spans="1:3" s="10" customFormat="1" ht="21" x14ac:dyDescent="0.4">
@@ -3020,7 +3020,7 @@
         <v>103</v>
       </c>
       <c r="C105" s="9" t="s">
-        <v>0</v>
+        <v>461</v>
       </c>
     </row>
     <row r="106" spans="1:3" s="10" customFormat="1" ht="21" x14ac:dyDescent="0.4">
@@ -3031,7 +3031,7 @@
         <v>104</v>
       </c>
       <c r="C106" s="9" t="s">
-        <v>0</v>
+        <v>461</v>
       </c>
     </row>
     <row r="107" spans="1:3" s="10" customFormat="1" ht="21" x14ac:dyDescent="0.4">
@@ -3042,7 +3042,7 @@
         <v>105</v>
       </c>
       <c r="C107" s="9" t="s">
-        <v>0</v>
+        <v>461</v>
       </c>
     </row>
     <row r="108" spans="1:3" s="10" customFormat="1" ht="21" x14ac:dyDescent="0.4">
@@ -3053,7 +3053,7 @@
         <v>106</v>
       </c>
       <c r="C108" s="9" t="s">
-        <v>0</v>
+        <v>461</v>
       </c>
     </row>
     <row r="109" spans="1:3" s="10" customFormat="1" ht="21" x14ac:dyDescent="0.4">
@@ -3064,7 +3064,7 @@
         <v>107</v>
       </c>
       <c r="C109" s="9" t="s">
-        <v>0</v>
+        <v>461</v>
       </c>
     </row>
     <row r="110" spans="1:3" s="10" customFormat="1" ht="21" x14ac:dyDescent="0.4">
@@ -3075,7 +3075,7 @@
         <v>108</v>
       </c>
       <c r="C110" s="9" t="s">
-        <v>0</v>
+        <v>461</v>
       </c>
     </row>
     <row r="111" spans="1:3" s="10" customFormat="1" ht="21" x14ac:dyDescent="0.4">
@@ -3086,40 +3086,40 @@
         <v>109</v>
       </c>
       <c r="C111" s="9" t="s">
-        <v>0</v>
+        <v>461</v>
       </c>
     </row>
     <row r="112" spans="1:3" s="10" customFormat="1" ht="21" x14ac:dyDescent="0.4">
       <c r="A112" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="B112" s="8" t="s">
+      <c r="B112" s="21" t="s">
         <v>110</v>
       </c>
       <c r="C112" s="9" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="113" spans="1:3" ht="21" x14ac:dyDescent="0.4">
-      <c r="A113" s="2" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" s="10" customFormat="1" ht="21" x14ac:dyDescent="0.4">
+      <c r="A113" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="B113" s="3" t="s">
+      <c r="B113" s="21" t="s">
         <v>111</v>
       </c>
-      <c r="C113" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="114" spans="1:3" ht="21" x14ac:dyDescent="0.4">
-      <c r="A114" s="2" t="s">
+      <c r="C113" s="9" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" s="10" customFormat="1" ht="21" x14ac:dyDescent="0.4">
+      <c r="A114" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="B114" s="3" t="s">
+      <c r="B114" s="21" t="s">
         <v>112</v>
       </c>
-      <c r="C114" s="1" t="s">
-        <v>0</v>
+      <c r="C114" s="9" t="s">
+        <v>461</v>
       </c>
     </row>
     <row r="115" spans="1:3" ht="21" x14ac:dyDescent="0.4">

--- a/Questions/Questions.xlsx
+++ b/Questions/Questions.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\abhis\Documents\GitHub\Programming\Questions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC14C596-7231-4ABC-BD37-DA57BAFA943D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C2A6B64-967A-4E58-8FAF-7CF3F712B5BA}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -1900,8 +1900,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1CDA779-6CF2-8045-9DE0-880424A4EED5}">
   <dimension ref="A1:C476"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A86" workbookViewId="0">
-      <selection activeCell="B97" sqref="B97"/>
+    <sheetView tabSelected="1" topLeftCell="A114" workbookViewId="0">
+      <selection activeCell="A119" activeCellId="2" sqref="A117:XFD117 A118:XFD118 A119:XFD119"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.796875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -3133,47 +3133,47 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:3" ht="21" x14ac:dyDescent="0.4">
-      <c r="A116" s="2" t="s">
+    <row r="116" spans="1:3" s="10" customFormat="1" ht="21" x14ac:dyDescent="0.4">
+      <c r="A116" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="B116" s="3" t="s">
+      <c r="B116" s="8" t="s">
         <v>114</v>
       </c>
-      <c r="C116" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="117" spans="1:3" ht="21" x14ac:dyDescent="0.4">
-      <c r="A117" s="2" t="s">
+      <c r="C116" s="9" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" s="10" customFormat="1" ht="21" x14ac:dyDescent="0.4">
+      <c r="A117" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="B117" s="3" t="s">
+      <c r="B117" s="8" t="s">
         <v>115</v>
       </c>
-      <c r="C117" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="118" spans="1:3" ht="21" x14ac:dyDescent="0.4">
-      <c r="A118" s="2" t="s">
+      <c r="C117" s="9" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" s="10" customFormat="1" ht="21" x14ac:dyDescent="0.4">
+      <c r="A118" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="B118" s="3" t="s">
+      <c r="B118" s="8" t="s">
         <v>116</v>
       </c>
-      <c r="C118" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="119" spans="1:3" ht="21" x14ac:dyDescent="0.4">
-      <c r="A119" s="2" t="s">
+      <c r="C118" s="9" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" s="10" customFormat="1" ht="21" x14ac:dyDescent="0.4">
+      <c r="A119" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="B119" s="3" t="s">
+      <c r="B119" s="8" t="s">
         <v>117</v>
       </c>
-      <c r="C119" s="1" t="s">
+      <c r="C119" s="9" t="s">
         <v>0</v>
       </c>
     </row>

--- a/Questions/Questions.xlsx
+++ b/Questions/Questions.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\abhis\Documents\GitHub\Programming\Questions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C2A6B64-967A-4E58-8FAF-7CF3F712B5BA}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7086219D-55C5-4235-BB8B-2A6700116C96}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -1900,8 +1900,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1CDA779-6CF2-8045-9DE0-880424A4EED5}">
   <dimension ref="A1:C476"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A114" workbookViewId="0">
-      <selection activeCell="A119" activeCellId="2" sqref="A117:XFD117 A118:XFD118 A119:XFD119"/>
+    <sheetView tabSelected="1" topLeftCell="A396" workbookViewId="0">
+      <selection activeCell="C116" sqref="C116:C119"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.796875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -3141,7 +3141,7 @@
         <v>114</v>
       </c>
       <c r="C116" s="9" t="s">
-        <v>0</v>
+        <v>461</v>
       </c>
     </row>
     <row r="117" spans="1:3" s="10" customFormat="1" ht="21" x14ac:dyDescent="0.4">
@@ -3152,7 +3152,7 @@
         <v>115</v>
       </c>
       <c r="C117" s="9" t="s">
-        <v>0</v>
+        <v>461</v>
       </c>
     </row>
     <row r="118" spans="1:3" s="10" customFormat="1" ht="21" x14ac:dyDescent="0.4">
@@ -3163,7 +3163,7 @@
         <v>116</v>
       </c>
       <c r="C118" s="9" t="s">
-        <v>0</v>
+        <v>461</v>
       </c>
     </row>
     <row r="119" spans="1:3" s="10" customFormat="1" ht="21" x14ac:dyDescent="0.4">
@@ -3174,7 +3174,7 @@
         <v>117</v>
       </c>
       <c r="C119" s="9" t="s">
-        <v>0</v>
+        <v>461</v>
       </c>
     </row>
     <row r="120" spans="1:3" ht="21" x14ac:dyDescent="0.4">
